--- a/Excel-XLSX/UN-SEN.xlsx
+++ b/Excel-XLSX/UN-SEN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1118">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7Hoj0P</t>
+    <t>nzPm4F</t>
   </si>
   <si>
     <t>1963</t>
@@ -3330,7 +3330,7 @@
     <t>835</t>
   </si>
   <si>
-    <t>11536</t>
+    <t>11539</t>
   </si>
   <si>
     <t>836</t>
@@ -3361,6 +3361,15 @@
   </si>
   <si>
     <t>845</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
   </si>
 </sst>
 </file>
@@ -3745,7 +3754,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V846"/>
+  <dimension ref="A1:V847"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -59690,10 +59699,10 @@
         <v>30</v>
       </c>
       <c r="N823" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O823" s="2" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="P823" s="2" t="s">
         <v>32</v>
@@ -59761,7 +59770,7 @@
         <v>47</v>
       </c>
       <c r="O824" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P824" s="2" t="s">
         <v>32</v>
@@ -59826,10 +59835,10 @@
         <v>30</v>
       </c>
       <c r="N825" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O825" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P825" s="2" t="s">
         <v>32</v>
@@ -59897,7 +59906,7 @@
         <v>32</v>
       </c>
       <c r="O826" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="P826" s="2" t="s">
         <v>32</v>
@@ -59965,7 +59974,7 @@
         <v>32</v>
       </c>
       <c r="O827" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="P827" s="2" t="s">
         <v>32</v>
@@ -60169,7 +60178,7 @@
         <v>32</v>
       </c>
       <c r="O830" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="P830" s="2" t="s">
         <v>32</v>
@@ -60234,10 +60243,10 @@
         <v>30</v>
       </c>
       <c r="N831" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O831" s="2" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="P831" s="2" t="s">
         <v>32</v>
@@ -60370,10 +60379,10 @@
         <v>30</v>
       </c>
       <c r="N833" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O833" s="2" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="P833" s="2" t="s">
         <v>32</v>
@@ -60438,10 +60447,10 @@
         <v>30</v>
       </c>
       <c r="N834" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O834" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P834" s="2" t="s">
         <v>32</v>
@@ -60577,7 +60586,7 @@
         <v>1104</v>
       </c>
       <c r="O836" s="2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="P836" s="2" t="s">
         <v>32</v>
@@ -60781,7 +60790,7 @@
         <v>32</v>
       </c>
       <c r="O839" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P839" s="2" t="s">
         <v>32</v>
@@ -60849,7 +60858,7 @@
         <v>32</v>
       </c>
       <c r="O840" s="2" t="s">
-        <v>227</v>
+        <v>444</v>
       </c>
       <c r="P840" s="2" t="s">
         <v>32</v>
@@ -60917,7 +60926,7 @@
         <v>47</v>
       </c>
       <c r="O841" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P841" s="2" t="s">
         <v>32</v>
@@ -60985,7 +60994,7 @@
         <v>32</v>
       </c>
       <c r="O842" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P842" s="2" t="s">
         <v>32</v>
@@ -61053,7 +61062,7 @@
         <v>32</v>
       </c>
       <c r="O843" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="P843" s="2" t="s">
         <v>32</v>
@@ -61189,7 +61198,7 @@
         <v>32</v>
       </c>
       <c r="O845" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P845" s="2" t="s">
         <v>32</v>
@@ -61278,6 +61287,74 @@
         <v>33</v>
       </c>
       <c r="V846" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E847" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F847" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G847" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H847" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I847" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J847" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K847" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L847" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M847" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N847" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O847" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P847" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q847" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R847" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S847" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T847" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U847" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V847" s="2" t="s">
         <v>32</v>
       </c>
     </row>
